--- a/Assets/ProjectD/TableExcel/ItemExcel.xlsx
+++ b/Assets/ProjectD/TableExcel/ItemExcel.xlsx
@@ -1,23 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project\ProjectD\Assets\ProjectD\TableExcel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{907444B1-30D5-4AC2-8AB8-724FE7E116F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15405" yWindow="5025" windowWidth="14340" windowHeight="9225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15410" yWindow="5030" windowWidth="14340" windowHeight="9230"/>
   </bookViews>
   <sheets>
     <sheet name="ItemSheet" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemCombineSheet" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -25,16 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxAmount</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Weight</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -52,14 +43,46 @@
   </si>
   <si>
     <t>Item</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄창</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CombineId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#### 아이템 Combine이 0이면 조합식이 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Amount</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>### 아이템 재료 아이디가 동일하고 수량을 채우면 해당 아이디로 조합가능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaterialId</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이템(퀘스트 아이템 / 상위 아이템 / 조합 재료 아이템)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -157,7 +180,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -192,7 +215,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -369,84 +392,200 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
     <col min="2" max="2" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.58203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3">
+        <v>50001</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>51001</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5">
+        <v>51002</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>0.05</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6">
+        <v>51003</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>0.15</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7">
+        <v>52001</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>10001</v>
-      </c>
-      <c r="B2">
-        <v>999</v>
-      </c>
-      <c r="C2">
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>10002</v>
-      </c>
-      <c r="B3">
-        <v>999</v>
-      </c>
-      <c r="C3">
-        <v>0.1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>10003</v>
-      </c>
-      <c r="B4">
-        <v>999</v>
-      </c>
-      <c r="C4">
-        <v>0.3</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D7">
+        <v>60001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="I14">
+        <v>50001</v>
+      </c>
+      <c r="J14" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="I15">
+        <v>51001</v>
+      </c>
+      <c r="J15" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="I16">
+        <v>52001</v>
+      </c>
+      <c r="J16" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17"/>
+  <cols>
+    <col min="2" max="2" width="9.4140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>60001</v>
+      </c>
+      <c r="B3">
+        <v>51001</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>60001</v>
+      </c>
+      <c r="B4">
+        <v>51002</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" r:id="rId1"/>
+</worksheet>
 </file>